--- a/my-python-code/DataProcess/PFR/PFRTeamTemplate.xlsx
+++ b/my-python-code/DataProcess/PFR/PFRTeamTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E0297C-6E5C-4C89-8511-59615B670CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D0ABED-3274-4FEF-A491-9B517A598444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Domestic ISG Bus</t>
   </si>
   <si>
-    <t>GB6.7</t>
-  </si>
-  <si>
     <t>Domestic Nature Gas Bus</t>
   </si>
   <si>
@@ -329,6 +326,10 @@
   </si>
   <si>
     <t>隆工特殊处理 Category 属于 BHO/CQP/DFM/XCE  and Application == CONSTRUCTION and Family == B6.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB6.7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -746,22 +747,22 @@
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="44.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.08203125" customWidth="1"/>
     <col min="5" max="5" width="33.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -772,16 +773,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19">
@@ -789,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -804,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -834,13 +835,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
@@ -857,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -868,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -991,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19">
@@ -1008,10 +1009,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19">
@@ -1025,10 +1026,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19">
@@ -1045,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19">
@@ -1073,13 +1074,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19">
@@ -1090,13 +1091,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19">
@@ -1104,16 +1105,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19">
@@ -1121,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19">
@@ -1138,16 +1139,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19">
@@ -1155,16 +1156,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19">
@@ -1172,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>24</v>
@@ -1189,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
@@ -1206,13 +1207,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -1221,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19">
@@ -1238,13 +1239,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
@@ -1255,53 +1256,53 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19">
       <c r="A33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>8</v>
@@ -1311,27 +1312,27 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19">
       <c r="A35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>6</v>
@@ -1346,7 +1347,7 @@
     </row>
     <row r="37" spans="1:5" ht="19">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>6</v>
@@ -1356,18 +1357,18 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4" t="s">
@@ -1376,82 +1377,82 @@
     </row>
     <row r="39" spans="1:5" ht="19">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19">
       <c r="A41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>2</v>
@@ -1461,12 +1462,12 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="19">
       <c r="A45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2</v>
@@ -1476,42 +1477,42 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19">
       <c r="A47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19">
       <c r="A48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
@@ -1521,12 +1522,12 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19">
       <c r="A49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>8</v>
@@ -1536,12 +1537,12 @@
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>8</v>
@@ -1551,186 +1552,186 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19">
       <c r="A51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19">
       <c r="A53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19">
       <c r="A55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="19">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="19">
       <c r="A60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19">
       <c r="A61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75425BE0-A80D-4949-9738-429B25F87878}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1755,12 +1756,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/my-python-code/DataProcess/PFR/PFRTeamTemplate.xlsx
+++ b/my-python-code/DataProcess/PFR/PFRTeamTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D0ABED-3274-4FEF-A491-9B517A598444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7046986-C3B1-4BB8-AC95-7B3EFB43B8FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
-    <t>EA EBU - 2016</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BHO/CQP/DFM/XCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>GB6.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA EBU</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +739,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -753,985 +753,985 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="19">
       <c r="A9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19">
       <c r="A10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19">
       <c r="A11" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19">
       <c r="A12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19">
       <c r="A13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19">
       <c r="A18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19">
       <c r="A19" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19">
       <c r="A20" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19">
       <c r="A21" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19">
       <c r="A22" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19">
       <c r="A23" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19">
       <c r="A24" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19">
       <c r="A25" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19">
       <c r="A26" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19">
       <c r="A27" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19">
       <c r="A28" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="19">
       <c r="A29" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19">
       <c r="A30" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19">
       <c r="A31" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19">
       <c r="A35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="19">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19">
       <c r="A46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19">
       <c r="A47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19">
       <c r="A48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19">
       <c r="A50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19">
       <c r="A51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="19">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19">
       <c r="A59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="19">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1756,12 +1756,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/my-python-code/DataProcess/PFR/PFRTeamTemplate.xlsx
+++ b/my-python-code/DataProcess/PFR/PFRTeamTemplate.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7046986-C3B1-4BB8-AC95-7B3EFB43B8FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3BA922-A5D5-4442-BD1D-F653A42E3734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Special logic" sheetId="2" r:id="rId2"/>
+    <sheet name="Exchange Rate" sheetId="3" r:id="rId2"/>
+    <sheet name="FCG Name" sheetId="4" r:id="rId3"/>
+    <sheet name="Special logic" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="98">
   <si>
     <t>BHO/CQP/DFM/XCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -330,6 +332,30 @@
   </si>
   <si>
     <t>EA EBU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acctg Period</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCG Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCG Name1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1741,6 +1767,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A93CA63-99D2-4C77-AB8E-E21A9F04313A}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>202001</v>
+      </c>
+      <c r="B2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>202002</v>
+      </c>
+      <c r="B3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>202003</v>
+      </c>
+      <c r="B4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>202004</v>
+      </c>
+      <c r="B5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>202005</v>
+      </c>
+      <c r="B6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>202006</v>
+      </c>
+      <c r="B7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>202007</v>
+      </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>202008</v>
+      </c>
+      <c r="B9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>202009</v>
+      </c>
+      <c r="B10">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>202010</v>
+      </c>
+      <c r="B11">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>202011</v>
+      </c>
+      <c r="B12">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>202012</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8177E3-509B-4026-948E-D74099A89C90}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75425BE0-A80D-4949-9738-429B25F87878}">
   <dimension ref="B1:B2"/>
   <sheetViews>
